--- a/PENDING_ASSIGNMENTS_UPDATED.xlsx
+++ b/PENDING_ASSIGNMENTS_UPDATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACCOMPLISHMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B894B499-FB2B-4A1C-BEF3-F3B4096B6031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B60F9C-4435-44D0-A4AF-78728924014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Module</t>
   </si>
@@ -60,23 +60,10 @@
     <t xml:space="preserve">TRIM 04 | Module 03 </t>
   </si>
   <si>
-    <t>Deep Learning Applications in Business | Assignment 3</t>
-  </si>
-  <si>
     <t>Deep Learning Applications in Business | Quiz</t>
   </si>
   <si>
     <t>Deep Learning Applications in Business |Final Exam</t>
-  </si>
-  <si>
-    <t>To performMulti Class Image Classification on the Weather dataset
-Dataset link: https://data.mendeley.com/datasets/4drtyfjtfy/1
-Assignment Details:
-1.Divide the training data into training,validation and run the model on them.Use the data prep logic we used in cats and dogs project (After modifying it suitably)
-2.Follow any 4 of 5 variations we tried in “cats and dogs project” including basic convnet, convnet with  augmentation.  Pretrained  model  with  features,  pretrained  model  with  augmentation  and pretrained model with fine tuning.
-3.Please remember that there are some differences in this problem as compared to “cats and dogs” which was a binary classification problem while this is a multiclass classification problem
-4.People who experiment with neural net architectures not covered in class will be appreciated and will get bonus marks.
-5.Please go through the relevant chapter from Chollet’s deep learning book as well in case of any doubts.</t>
   </si>
   <si>
     <t>TRIM 04 | Module 04</t>
@@ -382,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -408,9 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -737,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +735,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -763,9 +747,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="409.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="e">
+        <f>ROW(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -773,13 +758,11 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <f t="shared" ref="A3:A4" si="0">ROW(A2)</f>
+        <f t="shared" ref="A3" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -788,110 +771,97 @@
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15"/>
+      <c r="C4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>6</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="26"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="17"/>
       <c r="C11" s="20"/>
       <c r="D11" s="26"/>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3">
-        <f>ROW(A7)</f>
-        <v>7</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="12" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <f>ROW(A6)</f>
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="D6:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PENDING_ASSIGNMENTS_UPDATED.xlsx
+++ b/PENDING_ASSIGNMENTS_UPDATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACCOMPLISHMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B60F9C-4435-44D0-A4AF-78728924014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA394984-2F10-4EBC-B7EA-4F783666328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Module</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t xml:space="preserve">TRIM 04 | Module 03 </t>
-  </si>
-  <si>
-    <t>Deep Learning Applications in Business | Quiz</t>
   </si>
   <si>
     <t>Deep Learning Applications in Business |Final Exam</t>
@@ -721,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +732,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -748,9 +745,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="e">
-        <f>ROW(#REF!)</f>
-        <v>#REF!</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -758,60 +754,53 @@
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
-        <f t="shared" ref="A3" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="14"/>
     </row>
     <row r="4" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="25"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="16"/>
       <c r="C7" s="19"/>
@@ -829,39 +818,32 @@
       <c r="C9" s="19"/>
       <c r="D9" s="25"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="26"/>
-    </row>
-    <row r="12" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
-        <f>ROW(A6)</f>
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
+    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="D5:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PENDING_ASSIGNMENTS_UPDATED.xlsx
+++ b/PENDING_ASSIGNMENTS_UPDATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACCOMPLISHMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA394984-2F10-4EBC-B7EA-4F783666328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544667FD-7CA4-43A8-BFAA-E3D34C513021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PENDING_ASSIGNMENTS_UPDATED.xlsx
+++ b/PENDING_ASSIGNMENTS_UPDATED.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACCOMPLISHMENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544667FD-7CA4-43A8-BFAA-E3D34C513021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="PendingAssignments" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Module</t>
   </si>
@@ -48,9 +42,6 @@
     <t>TRIM03|Module 11</t>
   </si>
   <si>
-    <t>Big Data Analytics |Group Assignment</t>
-  </si>
-  <si>
     <t>Big Data Analytics | Individual Assignment</t>
   </si>
   <si>
@@ -73,14 +64,6 @@
   </si>
   <si>
     <t>TRIM 04 | Module 02</t>
-  </si>
-  <si>
-    <t>Group of 4 to 6 people have to prepare a PPT on a real-worldbig data use case implementation based on the industry/domain allotted for them.
-Groups are expected to prepare the PPT which comprises of slides pertaining to the below points.
-1. Details of the org/company that the group has chosen as their use case.
- 2. The Big Data problem that the company/org had in front of them.
-3. The solution approach that the company/org took to solve the problem.
-4. The technical details of the solution, like the big data stackthat is used, the different components of the ecosystem, overall architecture of the solution, the date pipeline diagram etc.</t>
   </si>
   <si>
     <t>Consulting in Analytics | Final Exam</t>
@@ -89,8 +72,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,40 +83,32 @@
     </font>
     <font>
       <sz val="20"/>
-      <color rgb="FF242424"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FFFFC000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="24"/>
+      <color rgb="FF242424"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,209 +117,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -362,81 +145,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,31 +451,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="43.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="102.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="92.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -744,107 +486,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
+    <row r="2" spans="1:4" ht="43.5" customHeight="1">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="36.75" customHeight="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="4" spans="1:4" ht="26.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
+    <row r="5" spans="1:4" ht="145.5" customHeight="1">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>6</v>
-      </c>
+    <row r="23" spans="4:4">
+      <c r="D23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="D5:D10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PENDING_ASSIGNMENTS_UPDATED.xlsx
+++ b/PENDING_ASSIGNMENTS_UPDATED.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Module</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>The zip folder attached with the assignment is empty.please add assignment detail into the zip folder.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIM 04 | Module 03 </t>
-  </si>
-  <si>
-    <t>Deep Learning Applications in Business |Final Exam</t>
   </si>
   <si>
     <t>TRIM 04 | Module 04</t>
@@ -451,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15"/>
@@ -472,9 +466,9 @@
     <col min="4" max="4" width="45" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30">
+    <row r="1" spans="1:4" ht="60">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -486,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5" customHeight="1">
+    <row r="2" spans="1:4" ht="36.75" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -494,50 +488,38 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="36.75" customHeight="1">
+    <row r="3" spans="1:4" ht="26.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="26.25">
+    <row r="4" spans="1:4" ht="145.5" customHeight="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="145.5" customHeight="1">
-      <c r="A5" s="5">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="2"/>
+    <row r="22" spans="4:4">
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PENDING_ASSIGNMENTS_UPDATED.xlsx
+++ b/PENDING_ASSIGNMENTS_UPDATED.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Module</t>
   </si>
@@ -37,15 +37,6 @@
   </si>
   <si>
     <t>Description of the assignment</t>
-  </si>
-  <si>
-    <t>TRIM03|Module 11</t>
-  </si>
-  <si>
-    <t>Big Data Analytics | Individual Assignment</t>
-  </si>
-  <si>
-    <t>The zip folder attached with the assignment is empty.please add assignment detail into the zip folder.</t>
   </si>
   <si>
     <t>TRIM 04 | Module 04</t>
@@ -445,7 +436,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="34.140625" defaultRowHeight="15"/>
@@ -468,7 +459,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="60">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -485,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -497,29 +488,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="145.5" customHeight="1">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="2"/>
+    <row r="21" spans="4:4">
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
